--- a/Data/g3.6.xlsx
+++ b/Data/g3.6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,27 @@
         <v>2023</v>
       </c>
       <c r="B15" t="n">
-        <v>14.29087477237749</v>
+        <v>14.29120608080826</v>
       </c>
       <c r="C15" t="n">
-        <v>8.045879236039708</v>
+        <v>8.064344405632822</v>
       </c>
       <c r="D15" t="n">
         <v>17.46029783768665</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16.66347210408774</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.443802699703051</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.62152262886292</v>
       </c>
     </row>
   </sheetData>
